--- a/data/Westerns/2023_0413_Exp33_gel_quant.xlsx
+++ b/data/Westerns/2023_0413_Exp33_gel_quant.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjain63/Documents/GitHub/Hepatic-TFEB/data/Westerns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD919D-848C-6C4C-B97B-37784538F3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558029B-6022-B844-857D-4802BB115A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="2520" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{ADB9E204-63A5-7E47-AE72-0403C05B67E1}"/>
+    <workbookView xWindow="6460" yWindow="2520" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{ADB9E204-63A5-7E47-AE72-0403C05B67E1}"/>
   </bookViews>
   <sheets>
     <sheet name="LAMP1" sheetId="1" r:id="rId1"/>
     <sheet name="Rab5a" sheetId="2" r:id="rId2"/>
     <sheet name="LC3" sheetId="3" r:id="rId3"/>
+    <sheet name="Rab5a_01" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="12">
   <si>
     <t>Sample</t>
   </si>
@@ -71,6 +72,9 @@
   </si>
   <si>
     <t>Treatment</t>
+  </si>
+  <si>
+    <t>HSP90_density</t>
   </si>
 </sst>
 </file>
@@ -673,7 +677,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4245600-32FF-2B44-A7C7-496B35029AD1}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1165,4 +1169,252 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4659486-1A0A-D348-B00A-39FB8A49F8FB}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>28210</v>
+      </c>
+      <c r="D2">
+        <v>22978</v>
+      </c>
+      <c r="E2">
+        <f>C2/D2</f>
+        <v>1.2276960570980939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>14625</v>
+      </c>
+      <c r="D3">
+        <v>19280</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">C3/D3</f>
+        <v>0.75855809128630702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>17700</v>
+      </c>
+      <c r="D4">
+        <v>19973</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.88619636509287536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>10408</v>
+      </c>
+      <c r="D5">
+        <v>18933</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.54972798816880575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>16994</v>
+      </c>
+      <c r="D6">
+        <v>19026</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.89319878061599911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>10384</v>
+      </c>
+      <c r="D7">
+        <v>17177</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.60452931245269836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>9972</v>
+      </c>
+      <c r="D8">
+        <v>17864</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.55821764442454103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>12603</v>
+      </c>
+      <c r="D9">
+        <v>20416</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.61730995297805646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>19120</v>
+      </c>
+      <c r="D10">
+        <v>18561</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.030116911804321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>17415</v>
+      </c>
+      <c r="D11">
+        <v>20393</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.85396949933800814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>19593</v>
+      </c>
+      <c r="D12">
+        <v>18906</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.0363376705807681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>17383</v>
+      </c>
+      <c r="D13">
+        <v>20280</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.8571499013806706</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Westerns/2023_0413_Exp33_gel_quant.xlsx
+++ b/data/Westerns/2023_0413_Exp33_gel_quant.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjain63/Documents/GitHub/Hepatic-TFEB/data/Westerns/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raghavjain/Documents/GitHub/Hepatic-TFEB/data/Westerns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558029B-6022-B844-857D-4802BB115A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46996A57-16EC-C243-B431-C66EF5112C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="2520" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{ADB9E204-63A5-7E47-AE72-0403C05B67E1}"/>
+    <workbookView xWindow="5560" yWindow="2060" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{ADB9E204-63A5-7E47-AE72-0403C05B67E1}"/>
   </bookViews>
   <sheets>
     <sheet name="LAMP1" sheetId="1" r:id="rId1"/>
     <sheet name="Rab5a" sheetId="2" r:id="rId2"/>
     <sheet name="LC3" sheetId="3" r:id="rId3"/>
     <sheet name="Rab5a_01" sheetId="4" r:id="rId4"/>
+    <sheet name="LC3_update" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="12">
   <si>
     <t>Sample</t>
   </si>
@@ -677,7 +678,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B13"/>
+      <selection activeCell="D1" sqref="D1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -928,7 +929,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1175,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4659486-1A0A-D348-B00A-39FB8A49F8FB}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1417,4 +1418,252 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC041DA5-F3F9-D743-881A-A6627B4B7830}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>12519</v>
+      </c>
+      <c r="D2">
+        <v>22978</v>
+      </c>
+      <c r="E2">
+        <f>C2/D2</f>
+        <v>0.54482548524675778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>17096</v>
+      </c>
+      <c r="D3">
+        <v>19280</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">C3/D3</f>
+        <v>0.88672199170124477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>15658</v>
+      </c>
+      <c r="D4">
+        <v>19973</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.78395834376408147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>11760</v>
+      </c>
+      <c r="D5">
+        <v>18933</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.62113769608619873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>10701</v>
+      </c>
+      <c r="D6">
+        <v>19026</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.56244087038789026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>11517</v>
+      </c>
+      <c r="D7">
+        <v>17177</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.67048960819700765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10173</v>
+      </c>
+      <c r="D8">
+        <v>17864</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.56946932377966863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>13517</v>
+      </c>
+      <c r="D9">
+        <v>20416</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.66207876175548586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>13154</v>
+      </c>
+      <c r="D10">
+        <v>18561</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.70869026453316097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>15596</v>
+      </c>
+      <c r="D11">
+        <v>20393</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.76477222576374249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>16283</v>
+      </c>
+      <c r="D12">
+        <v>18906</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.86126097535174018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>20412</v>
+      </c>
+      <c r="D13">
+        <v>20280</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.006508875739645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>